--- a/data/monthly/2099.02.xlsx
+++ b/data/monthly/2099.02.xlsx
@@ -693,6 +693,30 @@
           </rPr>
           <t xml:space="preserve">
 market</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+kawa</t>
         </r>
       </text>
     </comment>
@@ -1467,7 +1491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1478,7 +1502,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1507,7 +1531,7 @@
       </c>
       <c r="B1" s="30">
         <f>E1-A9</f>
-        <v>1084</v>
+        <v>1064</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>11</v>
@@ -1534,7 +1558,7 @@
       </c>
       <c r="B2" s="31">
         <f>E2-A9</f>
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
@@ -1667,7 +1691,7 @@
     <row r="6" spans="1:27" ht="15.75" thickBot="1">
       <c r="A6" s="27">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
-        <v>1979</v>
+        <v>1999</v>
       </c>
       <c r="B6" s="28">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
@@ -1726,15 +1750,15 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
-        <v>20.559572461490099</v>
+        <v>21.05592002499219</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>28.292989625903804</v>
+        <v>28.116213683223993</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>5.2813580635020436</v>
+        <v>5.2483598875351456</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
@@ -1742,19 +1766,19 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>6.0358377868594779</v>
+        <v>5.998125585754452</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>2.0433825840930524</v>
+        <v>2.0306154326772883</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>3.6780886513674944</v>
+        <v>3.6551077788191191</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>10.374096196164729</v>
+        <v>10.309278350515465</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="0"/>
@@ -1762,11 +1786,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" si="0"/>
-        <v>18.861993083935868</v>
+        <v>18.744142455482663</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="0"/>
-        <v>2.8292989625903804</v>
+        <v>2.8116213683223994</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
@@ -1774,11 +1798,11 @@
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0.47154982709839671</v>
+        <v>0.46860356138706655</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
-        <v>1.5718327569946557</v>
+        <v>1.5620118712902218</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
@@ -1804,11 +1828,11 @@
     <row r="9" spans="1:27" ht="15.75" thickBot="1">
       <c r="A9" s="5">
         <f>SUM(B9:Z9)</f>
-        <v>3181</v>
+        <v>3201</v>
       </c>
       <c r="B9" s="16">
         <f>SUM(B11:B706)</f>
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:T9" si="1">SUM(C11:C706)</f>
@@ -2141,7 +2165,9 @@
       <c r="A17" s="13">
         <v>7</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="18">
+        <v>20</v>
+      </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
